--- a/적격심사 논리 정리.xlsx
+++ b/적격심사 논리 정리.xlsx
@@ -29,7 +29,7 @@
     <author>SEC</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +635,134 @@
   </si>
   <si>
     <t>p2&gt;=0.8825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본비율&gt;=100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score +=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본비율&gt;=90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score +=4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본비율&gt;=80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score +=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score +=3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score +=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본비율&gt;=70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기자본비율&lt;70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동비율&gt;=100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동비율&gt;=90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동비율&gt;=80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동비율&gt;=70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유동비율&lt;70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고시금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰하한율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰가/예정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술(PQ)점수 또는 경영점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신인도점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,28 +949,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1140,39 +1277,48 @@
     <col min="5" max="5" width="3.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
     <col min="12" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="17"/>
+      <c r="M1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1356,17 @@
       <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="O2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1221,25 +1376,25 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1248,8 +1403,15 @@
       <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1259,23 +1421,30 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1285,25 +1454,25 @@
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1312,8 +1481,15 @@
       <c r="M5" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1323,23 +1499,30 @@
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1349,25 +1532,25 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>3</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1376,8 +1559,15 @@
       <c r="M7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1387,23 +1577,24 @@
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1414,35 +1605,38 @@
         <v>42</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="10">
+      <c r="E9" s="18">
         <v>4</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="O9" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1452,35 +1646,189 @@
       <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M14" s="18" t="s">
         <v>26</v>
       </c>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="O19" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="35">
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O2:O8"/>
+    <mergeCell ref="O9:O19"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F9:F19"/>
+    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="J9:J19"/>
+    <mergeCell ref="K9:K19"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -1489,16 +1837,17 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/적격심사 논리 정리.xlsx
+++ b/적격심사 논리 정리.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -392,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="195">
   <si>
     <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,6 +764,422 @@
   </si>
   <si>
     <t>신인도점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고시금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 회사 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술(PQ) 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신인도평가점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn, Ldt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁사 정보
+업체명 / 기술(PQ)점수 / 신인도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰율 감소 범위 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추첨율(상한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추첨율(하한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldtPriceSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblPriceSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldtPriceMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblPriceMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldtName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbxBusiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbxOur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldtPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldtPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 엑셀로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Args</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbl, Ldt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbxManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private, public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblRateStd, ldtRateStd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblCapital, ldtCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근년도 자기자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근년도 총자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근년도 유동자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근년도 유동부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblAsset, ldtAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblFlowAsset, ldtFlowAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblFlowFan, ldtFlowFan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateStd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>flowAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowFan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceMain, [PQ], [rateStd, capital, asset, flowAsset, flowFan], rateReduce, point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁사 정보(PQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁사 정보(Manage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbxOtherPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnOtherPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbxOtherManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnOtherManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstOtherPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstOtherManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default : setVisible(False)
+if &lt; 5억: setVisible(False)
+else: setVisible(True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default : setVisible(False)
+if &lt; 10억: .setVisible(False)
+else: setVisible(True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default : setVisible(False)
+if &gt;= 10억: setVisible(True)
+else: setVisible(False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default : setVisible(False)
+if &lt; 5억: setVisible(True)
+else: setVisible(False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default : setVisible(False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 조건(10억 이상, 5억 이상, 고시금액 이상, 고시금액 미만)에 따라 해당하는 정보 미입력 시 경고라벨 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +1256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -912,13 +1329,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,34 +1462,148 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1285,29 +1909,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="21"/>
       <c r="O1" s="2" t="s">
         <v>79</v>
       </c>
@@ -1356,7 +1980,7 @@
       <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="13" t="s">
         <v>76</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -1376,25 +2000,25 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1403,7 +2027,7 @@
       <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="2" t="s">
         <v>83</v>
       </c>
@@ -1421,22 +2045,22 @@
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1454,25 +2078,25 @@
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="18">
         <v>2</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1481,7 +2105,7 @@
       <c r="M5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="2" t="s">
         <v>87</v>
       </c>
@@ -1499,22 +2123,22 @@
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="2" t="s">
         <v>89</v>
       </c>
@@ -1532,25 +2156,25 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>3</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1559,7 +2183,7 @@
       <c r="M7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="2" t="s">
         <v>91</v>
       </c>
@@ -1577,22 +2201,22 @@
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1605,13 +2229,13 @@
         <v>42</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -1620,19 +2244,19 @@
       <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1646,73 +2270,73 @@
       <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="O10" s="20"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="O11" s="20"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="O12" s="20"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="O13" s="20"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1721,104 +2345,119 @@
       <c r="I14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="20"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="O15" s="20"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="O16" s="20"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="O17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="O18" s="20"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="O19" s="20"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="O9:O19"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J9:J19"/>
+    <mergeCell ref="K9:K19"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="F7:F8"/>
@@ -1827,31 +2466,1033 @@
     <mergeCell ref="E9:E19"/>
     <mergeCell ref="G14:G19"/>
     <mergeCell ref="G9:G13"/>
-    <mergeCell ref="J9:J19"/>
-    <mergeCell ref="K9:K19"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O2:O8"/>
+    <mergeCell ref="O9:O19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="1.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="65.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="J1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="J5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="30"/>
+      <c r="J6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="30"/>
+      <c r="L7" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="J8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="30"/>
+      <c r="J9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="30"/>
+      <c r="L10" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="J11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="31"/>
+      <c r="J12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="31"/>
+      <c r="L13" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="31"/>
+      <c r="J14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="31"/>
+      <c r="L16" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="31"/>
+      <c r="L19" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="L22" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="35"/>
+      <c r="J24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="31"/>
+      <c r="J25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="31"/>
+      <c r="J26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="31"/>
+      <c r="J27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="31"/>
+      <c r="J28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="31"/>
+      <c r="J29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="J30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="J31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="51"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="J32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="J33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="J34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="C36" s="27"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="35"/>
+      <c r="J38" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="L38" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="31"/>
+      <c r="J39" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="31"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="31"/>
+      <c r="J41" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K41" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="31"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="31"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="31"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="31"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="31"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="31"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+    </row>
+    <row r="48" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="1:12" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="35"/>
+      <c r="J49" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="L49" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="31"/>
+      <c r="J50" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="31"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="31"/>
+      <c r="J52" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="31"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="31"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="31"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="31"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="31"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="31"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+    </row>
+    <row r="59" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J52:J58"/>
+    <mergeCell ref="K52:K58"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="K41:K47"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="D41:G47"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D52:G58"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>